--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_23_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2222561.175766031</v>
+        <v>2220064.009589164</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673442</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>213.5060897741283</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>191.7549174328555</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1427,13 +1427,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1455,7 +1455,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804553993</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1515,7 +1515,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1528,25 +1528,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D13" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F13" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124555</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
         <v>172.5738126575766</v>
@@ -1591,7 +1591,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y13" t="n">
         <v>171.6095167335022</v>
@@ -1607,22 +1607,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>324.1847740810746</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958326</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1667,13 +1667,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>236.8621683961339</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145475</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U16" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X16" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.7835684262954</v>
+        <v>288.7835684262953</v>
       </c>
       <c r="C17" t="n">
-        <v>271.3226185338224</v>
+        <v>271.3226185338223</v>
       </c>
       <c r="D17" t="n">
-        <v>260.7327683834978</v>
+        <v>260.7327683834977</v>
       </c>
       <c r="E17" t="n">
-        <v>235.6978389621993</v>
+        <v>287.9800968350765</v>
       </c>
       <c r="F17" t="n">
-        <v>312.9257725045263</v>
+        <v>312.9257725045262</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9714524162683</v>
+        <v>316.9714524162682</v>
       </c>
       <c r="H17" t="n">
-        <v>200.6574911501353</v>
+        <v>148.3752332772597</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>15.23748855099068</v>
+        <v>15.23748855099058</v>
       </c>
       <c r="T17" t="n">
-        <v>109.967696902435</v>
+        <v>109.9676969024349</v>
       </c>
       <c r="U17" t="n">
-        <v>157.0448987217168</v>
+        <v>157.0448987217167</v>
       </c>
       <c r="V17" t="n">
-        <v>233.8019852329497</v>
+        <v>233.8019852329496</v>
       </c>
       <c r="W17" t="n">
-        <v>255.2906954802278</v>
+        <v>255.2906954802277</v>
       </c>
       <c r="X17" t="n">
-        <v>275.7808274412839</v>
+        <v>275.7808274412837</v>
       </c>
       <c r="Y17" t="n">
-        <v>292.2876654188684</v>
+        <v>292.2876654188683</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824772</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.88170694475214</v>
+        <v>85.88170694475203</v>
       </c>
       <c r="C19" t="n">
-        <v>73.29654786144268</v>
+        <v>73.29654786144256</v>
       </c>
       <c r="D19" t="n">
-        <v>54.6651997810272</v>
+        <v>54.66519978102708</v>
       </c>
       <c r="E19" t="n">
-        <v>52.48368940938401</v>
+        <v>52.4836894093839</v>
       </c>
       <c r="F19" t="n">
-        <v>51.47077478574609</v>
+        <v>51.47077478574597</v>
       </c>
       <c r="G19" t="n">
-        <v>72.07553502184307</v>
+        <v>72.07553502184295</v>
       </c>
       <c r="H19" t="n">
-        <v>50.80474167713562</v>
+        <v>50.80474167713551</v>
       </c>
       <c r="I19" t="n">
-        <v>2.402147172652938</v>
+        <v>2.402147172652839</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>95.81875209425672</v>
+        <v>95.81875209425661</v>
       </c>
       <c r="T19" t="n">
-        <v>125.598676038984</v>
+        <v>125.5986760389839</v>
       </c>
       <c r="U19" t="n">
-        <v>192.2615649684277</v>
+        <v>192.2615649684276</v>
       </c>
       <c r="V19" t="n">
-        <v>158.1873700866428</v>
+        <v>158.1873700866427</v>
       </c>
       <c r="W19" t="n">
-        <v>192.5727250994058</v>
+        <v>192.5727250994057</v>
       </c>
       <c r="X19" t="n">
-        <v>131.759382151852</v>
+        <v>131.7593821518519</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.6343801149096</v>
+        <v>124.6343801149095</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.7835684262954</v>
+        <v>288.7835684262953</v>
       </c>
       <c r="C20" t="n">
-        <v>271.3226185338224</v>
+        <v>271.3226185338223</v>
       </c>
       <c r="D20" t="n">
-        <v>260.7327683834978</v>
+        <v>260.7327683834977</v>
       </c>
       <c r="E20" t="n">
-        <v>287.9800968350766</v>
+        <v>287.9800968350765</v>
       </c>
       <c r="F20" t="n">
-        <v>312.9257725045263</v>
+        <v>312.9257725045262</v>
       </c>
       <c r="G20" t="n">
-        <v>264.6891945433916</v>
+        <v>316.9714524162682</v>
       </c>
       <c r="H20" t="n">
-        <v>200.6574911501353</v>
+        <v>200.6574911501352</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>15.23748855099068</v>
+        <v>15.23748855099058</v>
       </c>
       <c r="T20" t="n">
-        <v>109.967696902435</v>
+        <v>109.9676969024349</v>
       </c>
       <c r="U20" t="n">
-        <v>157.0448987217168</v>
+        <v>157.0448987217167</v>
       </c>
       <c r="V20" t="n">
-        <v>233.8019852329497</v>
+        <v>233.8019852329496</v>
       </c>
       <c r="W20" t="n">
-        <v>255.2906954802278</v>
+        <v>255.2906954802277</v>
       </c>
       <c r="X20" t="n">
-        <v>275.7808274412839</v>
+        <v>223.4985695684083</v>
       </c>
       <c r="Y20" t="n">
-        <v>292.2876654188684</v>
+        <v>292.2876654188683</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.88170694475214</v>
+        <v>85.88170694475203</v>
       </c>
       <c r="C22" t="n">
-        <v>73.29654786144268</v>
+        <v>73.29654786144256</v>
       </c>
       <c r="D22" t="n">
-        <v>54.6651997810272</v>
+        <v>54.66519978102708</v>
       </c>
       <c r="E22" t="n">
-        <v>52.48368940938401</v>
+        <v>52.4836894093839</v>
       </c>
       <c r="F22" t="n">
-        <v>51.47077478574609</v>
+        <v>51.47077478574597</v>
       </c>
       <c r="G22" t="n">
-        <v>72.07553502184307</v>
+        <v>72.07553502184295</v>
       </c>
       <c r="H22" t="n">
-        <v>50.80474167713562</v>
+        <v>50.80474167713551</v>
       </c>
       <c r="I22" t="n">
-        <v>2.402147172652938</v>
+        <v>2.402147172652839</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>95.81875209425672</v>
+        <v>95.81875209425661</v>
       </c>
       <c r="T22" t="n">
-        <v>125.598676038984</v>
+        <v>125.5986760389839</v>
       </c>
       <c r="U22" t="n">
-        <v>192.2615649684277</v>
+        <v>192.2615649684276</v>
       </c>
       <c r="V22" t="n">
-        <v>158.1873700866428</v>
+        <v>158.1873700866427</v>
       </c>
       <c r="W22" t="n">
-        <v>192.5727250994058</v>
+        <v>192.5727250994057</v>
       </c>
       <c r="X22" t="n">
-        <v>131.759382151852</v>
+        <v>131.7593821518519</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.6343801149096</v>
+        <v>124.6343801149095</v>
       </c>
     </row>
     <row r="23">
@@ -2324,16 +2324,16 @@
         <v>260.7327683834978</v>
       </c>
       <c r="E23" t="n">
-        <v>246.2549806781837</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F23" t="n">
         <v>312.9257725045263</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9714524162683</v>
+        <v>275.246336259375</v>
       </c>
       <c r="H23" t="n">
-        <v>200.6574911501354</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>15.23748855099073</v>
+        <v>15.2374885509907</v>
       </c>
       <c r="T23" t="n">
         <v>109.967696902435</v>
       </c>
       <c r="U23" t="n">
-        <v>157.0448987217169</v>
+        <v>157.0448987217168</v>
       </c>
       <c r="V23" t="n">
         <v>233.8019852329498</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.88170694475218</v>
+        <v>85.88170694475217</v>
       </c>
       <c r="C25" t="n">
-        <v>73.29654786144272</v>
+        <v>73.2965478614427</v>
       </c>
       <c r="D25" t="n">
-        <v>54.66519978102724</v>
+        <v>54.66519978102723</v>
       </c>
       <c r="E25" t="n">
-        <v>52.48368940938406</v>
+        <v>52.48368940938404</v>
       </c>
       <c r="F25" t="n">
-        <v>51.47077478574613</v>
+        <v>51.47077478574612</v>
       </c>
       <c r="G25" t="n">
-        <v>72.07553502184311</v>
+        <v>72.07553502184309</v>
       </c>
       <c r="H25" t="n">
-        <v>50.80474167713567</v>
+        <v>50.80474167713565</v>
       </c>
       <c r="I25" t="n">
-        <v>2.402147172652995</v>
+        <v>2.402147172652967</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>332.1783743428822</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U26" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2621,7 +2621,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>222.4736344426676</v>
       </c>
     </row>
     <row r="27">
@@ -2685,7 +2685,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
-        <v>190.7165703189225</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U27" t="n">
         <v>225.7871683969286</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2792,22 +2792,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
-        <v>309.3700466096521</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,13 +2852,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.262802037461</v>
+        <v>297.5969707338166</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2886,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851072</v>
+        <v>89.59687541851075</v>
       </c>
       <c r="I30" t="n">
         <v>18.81721868247745</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>285.8032029865175</v>
+        <v>285.8032029865172</v>
       </c>
       <c r="C32" t="n">
-        <v>268.3422530940444</v>
+        <v>268.3422530940442</v>
       </c>
       <c r="D32" t="n">
-        <v>257.7524029437199</v>
+        <v>257.7524029437196</v>
       </c>
       <c r="E32" t="n">
-        <v>284.9997313952987</v>
+        <v>284.9997313952985</v>
       </c>
       <c r="F32" t="n">
-        <v>309.9454070647483</v>
+        <v>309.9454070647481</v>
       </c>
       <c r="G32" t="n">
-        <v>313.9910869764904</v>
+        <v>313.9910869764901</v>
       </c>
       <c r="H32" t="n">
-        <v>197.6771257103573</v>
+        <v>197.6771257103571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>12.25712311121272</v>
+        <v>12.25712311121252</v>
       </c>
       <c r="T32" t="n">
-        <v>106.987331462657</v>
+        <v>106.9873314626568</v>
       </c>
       <c r="U32" t="n">
-        <v>154.0645332819388</v>
+        <v>154.0645332819387</v>
       </c>
       <c r="V32" t="n">
-        <v>230.8216197931718</v>
+        <v>230.8216197931716</v>
       </c>
       <c r="W32" t="n">
-        <v>252.3103300404499</v>
+        <v>252.3103300404497</v>
       </c>
       <c r="X32" t="n">
-        <v>272.8004620015059</v>
+        <v>272.8004620015057</v>
       </c>
       <c r="Y32" t="n">
-        <v>289.3072999790904</v>
+        <v>289.3072999790903</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3123,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851075</v>
       </c>
       <c r="I33" t="n">
         <v>18.81721868247745</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.90134150497417</v>
+        <v>82.90134150497397</v>
       </c>
       <c r="C34" t="n">
-        <v>70.31618242166471</v>
+        <v>70.31618242166451</v>
       </c>
       <c r="D34" t="n">
-        <v>51.68483434124923</v>
+        <v>51.68483434124903</v>
       </c>
       <c r="E34" t="n">
-        <v>49.50332396960604</v>
+        <v>49.50332396960584</v>
       </c>
       <c r="F34" t="n">
-        <v>48.49040934596812</v>
+        <v>48.49040934596792</v>
       </c>
       <c r="G34" t="n">
-        <v>69.0951695820651</v>
+        <v>69.0951695820649</v>
       </c>
       <c r="H34" t="n">
-        <v>47.82437623735765</v>
+        <v>47.82437623735746</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>92.83838665447877</v>
+        <v>92.83838665447857</v>
       </c>
       <c r="T34" t="n">
-        <v>122.6183105992061</v>
+        <v>122.6183105992059</v>
       </c>
       <c r="U34" t="n">
-        <v>189.2811995286497</v>
+        <v>189.2811995286495</v>
       </c>
       <c r="V34" t="n">
-        <v>155.2070046468649</v>
+        <v>155.2070046468647</v>
       </c>
       <c r="W34" t="n">
-        <v>189.5923596596279</v>
+        <v>189.5923596596277</v>
       </c>
       <c r="X34" t="n">
-        <v>128.779016712074</v>
+        <v>128.7790167120738</v>
       </c>
       <c r="Y34" t="n">
-        <v>121.6540146751317</v>
+        <v>121.6540146751315</v>
       </c>
     </row>
     <row r="35">
@@ -3357,13 +3357,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>134.999469165707</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429024</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007076</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3588,13 +3588,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804553998</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.999469165707</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
         <v>89.59687541851116</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.1472599538323</v>
+        <v>82.1472599538322</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052284</v>
+        <v>69.56210087052274</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010726</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846418</v>
+        <v>48.74924241846408</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482615</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092323</v>
+        <v>68.34108803092313</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621579</v>
+        <v>47.07029468621569</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775077</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.024935160932</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429024</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007076</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893086</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.1472599538323</v>
+        <v>82.1472599538322</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052284</v>
+        <v>69.56210087052274</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010726</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846418</v>
+        <v>48.74924241846408</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482615</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092323</v>
+        <v>68.34108803092313</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621579</v>
+        <v>47.07029468621569</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775077</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.024935160932</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429024</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007076</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383232</v>
+        <v>82.1472599538322</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052274</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010726</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846408</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482627</v>
+        <v>47.73632779482615</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092325</v>
+        <v>68.34108803092313</v>
       </c>
       <c r="H46" t="n">
-        <v>47.0702946862158</v>
+        <v>47.07029468621569</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775077</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>128.024935160932</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
   </sheetData>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1584.98077385971</v>
+        <v>1640.517726580259</v>
       </c>
       <c r="C11" t="n">
-        <v>1263.467889867371</v>
+        <v>1640.517726580259</v>
       </c>
       <c r="D11" t="n">
-        <v>1047.805172923807</v>
+        <v>1329.701660921583</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>991.3630412714119</v>
       </c>
       <c r="F11" t="n">
-        <v>684.268901082273</v>
+        <v>627.8267694298777</v>
       </c>
       <c r="G11" t="n">
-        <v>316.6460838753428</v>
+        <v>260.2039522229466</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5051,40 +5051,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416634</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638544</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V11" t="n">
-        <v>2898.155827638544</v>
+        <v>2614.542573243045</v>
       </c>
       <c r="W11" t="n">
-        <v>2592.836805316503</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X11" t="n">
-        <v>2266.820680003496</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y11" t="n">
-        <v>1924.130980975758</v>
+        <v>1640.517726580259</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E12" t="n">
         <v>458.9189605332749</v>
@@ -5109,22 +5109,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5133,37 +5133,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052944</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254603</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611979</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268781</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770412</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998335</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315254</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337111</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5224,25 +5224,25 @@
         <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
         <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V13" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.515482921748</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1644.05721849195</v>
+        <v>1404.8025029403</v>
       </c>
       <c r="C14" t="n">
-        <v>1322.544334499611</v>
+        <v>1083.289618947962</v>
       </c>
       <c r="D14" t="n">
-        <v>1011.728268840934</v>
+        <v>772.4735532892846</v>
       </c>
       <c r="E14" t="n">
-        <v>1011.728268840934</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="F14" t="n">
-        <v>684.268901082273</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G14" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912085</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5288,40 +5288,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084338</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416633</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638543</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243046</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921005</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X14" t="n">
-        <v>1983.207425607998</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y14" t="n">
-        <v>1983.207425607998</v>
+        <v>1743.952710056349</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,31 +5373,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
         <v>1109.759191501176</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G16" t="n">
         <v>215.1557144998336</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315254</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337113</v>
+        <v>771.697886033711</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5455,31 +5455,31 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="17">
@@ -5492,61 +5492,61 @@
         <v>1680.9645830488</v>
       </c>
       <c r="C17" t="n">
-        <v>1406.901332004535</v>
+        <v>1406.901332004536</v>
       </c>
       <c r="D17" t="n">
-        <v>1143.534899293931</v>
+        <v>1143.534899293932</v>
       </c>
       <c r="E17" t="n">
-        <v>905.4562740795877</v>
+        <v>852.6459125918343</v>
       </c>
       <c r="F17" t="n">
-        <v>589.3696351861267</v>
+        <v>536.5592736983735</v>
       </c>
       <c r="G17" t="n">
-        <v>269.1964509272696</v>
+        <v>216.3860894395164</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218417</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3310.214419032413</v>
+        <v>3310.214419032412</v>
       </c>
       <c r="T17" t="n">
-        <v>3199.135937312782</v>
+        <v>3199.135937312781</v>
       </c>
       <c r="U17" t="n">
-        <v>3040.504726482765</v>
+        <v>3040.504726482764</v>
       </c>
       <c r="V17" t="n">
         <v>2804.341105035341</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,31 +5610,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
         <v>1109.759191501176</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>427.318819168781</v>
+        <v>427.3188191687802</v>
       </c>
       <c r="C19" t="n">
-        <v>353.2819021370207</v>
+        <v>353.28190213702</v>
       </c>
       <c r="D19" t="n">
-        <v>298.0645286208317</v>
+        <v>298.0645286208311</v>
       </c>
       <c r="E19" t="n">
-        <v>245.0507009345852</v>
+        <v>245.0507009345847</v>
       </c>
       <c r="F19" t="n">
-        <v>193.0600193328215</v>
+        <v>193.0600193328211</v>
       </c>
       <c r="G19" t="n">
-        <v>120.256448603687</v>
+        <v>120.2564486036868</v>
       </c>
       <c r="H19" t="n">
-        <v>68.93852771769146</v>
+        <v>68.93852771769134</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>139.6276133533381</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K19" t="n">
-        <v>330.9492381258218</v>
+        <v>237.9384676210063</v>
       </c>
       <c r="L19" t="n">
-        <v>486.6590820481791</v>
+        <v>486.659082048177</v>
       </c>
       <c r="M19" t="n">
-        <v>747.1023338521902</v>
+        <v>747.1023338521882</v>
       </c>
       <c r="N19" t="n">
-        <v>1011.421941386851</v>
+        <v>1011.421941386849</v>
       </c>
       <c r="O19" t="n">
-        <v>1242.351061109854</v>
+        <v>1242.351061109852</v>
       </c>
       <c r="P19" t="n">
-        <v>1434.312834367426</v>
+        <v>1434.312834367424</v>
       </c>
       <c r="Q19" t="n">
-        <v>1540.24437223078</v>
+        <v>1540.244372230778</v>
       </c>
       <c r="R19" t="n">
-        <v>1545.212311592247</v>
+        <v>1545.212311592245</v>
       </c>
       <c r="S19" t="n">
-        <v>1448.42569331522</v>
+        <v>1448.425693315218</v>
       </c>
       <c r="T19" t="n">
-        <v>1321.558343780892</v>
+        <v>1321.558343780891</v>
       </c>
       <c r="U19" t="n">
-        <v>1127.354742802682</v>
+        <v>1127.354742802681</v>
       </c>
       <c r="V19" t="n">
-        <v>967.5695204929423</v>
+        <v>967.5695204929411</v>
       </c>
       <c r="W19" t="n">
-        <v>773.0516163521283</v>
+        <v>773.0516163521272</v>
       </c>
       <c r="X19" t="n">
-        <v>639.9613313502576</v>
+        <v>639.9613313502566</v>
       </c>
       <c r="Y19" t="n">
-        <v>514.0680181028741</v>
+        <v>514.0680181028732</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1680.9645830488</v>
+        <v>1733.774944536553</v>
       </c>
       <c r="C20" t="n">
-        <v>1406.901332004535</v>
+        <v>1459.711693492288</v>
       </c>
       <c r="D20" t="n">
-        <v>1143.534899293931</v>
+        <v>1196.345260781685</v>
       </c>
       <c r="E20" t="n">
-        <v>852.6459125918336</v>
+        <v>905.456274079587</v>
       </c>
       <c r="F20" t="n">
-        <v>536.5592736983726</v>
+        <v>589.3696351861262</v>
       </c>
       <c r="G20" t="n">
-        <v>269.1964509272696</v>
+        <v>269.1964509272694</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5768,34 +5768,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3310.214419032413</v>
+        <v>3310.214419032412</v>
       </c>
       <c r="T20" t="n">
-        <v>3199.135937312782</v>
+        <v>3199.135937312781</v>
       </c>
       <c r="U20" t="n">
-        <v>3040.504726482765</v>
+        <v>3040.504726482764</v>
       </c>
       <c r="V20" t="n">
         <v>2804.341105035341</v>
       </c>
       <c r="W20" t="n">
-        <v>2546.471715661374</v>
+        <v>2546.471715661373</v>
       </c>
       <c r="X20" t="n">
-        <v>2267.90522329644</v>
+        <v>2320.715584784193</v>
       </c>
       <c r="Y20" t="n">
-        <v>1972.665157216775</v>
+        <v>2025.475518704528</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>427.318819168781</v>
+        <v>427.3188191687802</v>
       </c>
       <c r="C22" t="n">
-        <v>353.2819021370207</v>
+        <v>353.28190213702</v>
       </c>
       <c r="D22" t="n">
-        <v>298.0645286208317</v>
+        <v>298.0645286208311</v>
       </c>
       <c r="E22" t="n">
-        <v>245.0507009345852</v>
+        <v>245.0507009345847</v>
       </c>
       <c r="F22" t="n">
-        <v>193.0600193328215</v>
+        <v>193.0600193328211</v>
       </c>
       <c r="G22" t="n">
-        <v>120.256448603687</v>
+        <v>120.2564486036868</v>
       </c>
       <c r="H22" t="n">
-        <v>68.93852771769146</v>
+        <v>68.93852771769134</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>171.3456404744362</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K22" t="n">
-        <v>330.9492381258218</v>
+        <v>269.6564947421066</v>
       </c>
       <c r="L22" t="n">
-        <v>579.6698525529923</v>
+        <v>518.3771091692772</v>
       </c>
       <c r="M22" t="n">
-        <v>840.1131043570035</v>
+        <v>778.8203609732884</v>
       </c>
       <c r="N22" t="n">
-        <v>1104.432711891664</v>
+        <v>1011.421941386849</v>
       </c>
       <c r="O22" t="n">
-        <v>1242.351061109854</v>
+        <v>1242.351061109852</v>
       </c>
       <c r="P22" t="n">
-        <v>1434.312834367426</v>
+        <v>1434.312834367424</v>
       </c>
       <c r="Q22" t="n">
-        <v>1540.24437223078</v>
+        <v>1540.244372230778</v>
       </c>
       <c r="R22" t="n">
-        <v>1545.212311592247</v>
+        <v>1545.212311592245</v>
       </c>
       <c r="S22" t="n">
-        <v>1448.42569331522</v>
+        <v>1448.425693315218</v>
       </c>
       <c r="T22" t="n">
-        <v>1321.558343780892</v>
+        <v>1321.558343780891</v>
       </c>
       <c r="U22" t="n">
-        <v>1127.354742802682</v>
+        <v>1127.354742802681</v>
       </c>
       <c r="V22" t="n">
-        <v>967.5695204929423</v>
+        <v>967.5695204929411</v>
       </c>
       <c r="W22" t="n">
-        <v>773.0516163521283</v>
+        <v>773.0516163521272</v>
       </c>
       <c r="X22" t="n">
-        <v>639.9613313502576</v>
+        <v>639.9613313502566</v>
       </c>
       <c r="Y22" t="n">
-        <v>514.0680181028741</v>
+        <v>514.0680181028732</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1691.845990713183</v>
+        <v>1691.845990713181</v>
       </c>
       <c r="C23" t="n">
-        <v>1417.782739668918</v>
+        <v>1417.782739668916</v>
       </c>
       <c r="D23" t="n">
-        <v>1154.416306958314</v>
+        <v>1154.416306958312</v>
       </c>
       <c r="E23" t="n">
-        <v>905.673902232875</v>
+        <v>863.5273202562148</v>
       </c>
       <c r="F23" t="n">
-        <v>589.5872633394141</v>
+        <v>547.4406813627538</v>
       </c>
       <c r="G23" t="n">
         <v>269.4140790805573</v>
       </c>
       <c r="H23" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547105</v>
       </c>
       <c r="I23" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547105</v>
       </c>
       <c r="J23" t="n">
-        <v>255.6088755444965</v>
+        <v>266.2726550555904</v>
       </c>
       <c r="K23" t="n">
-        <v>589.4282492343428</v>
+        <v>600.0920287454369</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.462462482752</v>
+        <v>1051.126241993846</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.994367154676</v>
+        <v>1584.65814666577</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.773184213458</v>
+        <v>2131.436963724553</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.745655092795</v>
+        <v>2634.40943460389</v>
       </c>
       <c r="P23" t="n">
-        <v>3029.18380096107</v>
+        <v>3029.183800961068</v>
       </c>
       <c r="Q23" t="n">
-        <v>3277.470162716752</v>
+        <v>3277.47016271675</v>
       </c>
       <c r="R23" t="n">
-        <v>3336.487229273555</v>
+        <v>3336.487229273553</v>
       </c>
       <c r="S23" t="n">
-        <v>3321.095826696796</v>
+        <v>3321.095826696795</v>
       </c>
       <c r="T23" t="n">
-        <v>3210.017344977165</v>
+        <v>3210.017344977163</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.386134147148</v>
+        <v>3051.386134147147</v>
       </c>
       <c r="V23" t="n">
-        <v>2815.222512699724</v>
+        <v>2815.222512699722</v>
       </c>
       <c r="W23" t="n">
-        <v>2557.353123325756</v>
+        <v>2557.353123325755</v>
       </c>
       <c r="X23" t="n">
-        <v>2278.786630960823</v>
+        <v>2278.786630960822</v>
       </c>
       <c r="Y23" t="n">
-        <v>1983.546564881158</v>
+        <v>1983.546564881157</v>
       </c>
     </row>
     <row r="24">
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.7614826343964</v>
+        <v>941.7614826343961</v>
       </c>
       <c r="C24" t="n">
-        <v>767.3084533532694</v>
+        <v>767.3084533532691</v>
       </c>
       <c r="D24" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920179</v>
       </c>
       <c r="E24" t="n">
-        <v>459.1365886865626</v>
+        <v>459.1365886865624</v>
       </c>
       <c r="F24" t="n">
-        <v>312.6020307134476</v>
+        <v>312.6020307134474</v>
       </c>
       <c r="G24" t="n">
-        <v>176.2389305460657</v>
+        <v>176.2389305460656</v>
       </c>
       <c r="H24" t="n">
-        <v>85.73703618393316</v>
+        <v>85.7370361839331</v>
       </c>
       <c r="I24" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547105</v>
       </c>
       <c r="J24" t="n">
         <v>160.4070140760884</v>
       </c>
       <c r="K24" t="n">
-        <v>398.6712130564355</v>
+        <v>398.6712130564356</v>
       </c>
       <c r="L24" t="n">
-        <v>765.3693733691007</v>
+        <v>765.369373369101</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.645698591416</v>
+        <v>1212.645698591417</v>
       </c>
       <c r="N24" t="n">
         <v>1686.168742145871</v>
@@ -6087,7 +6087,7 @@
         <v>2407.629613040029</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.271170686628</v>
+        <v>2565.271170686629</v>
       </c>
       <c r="R24" t="n">
         <v>2565.126817279144</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>427.536447322069</v>
+        <v>427.5364473220689</v>
       </c>
       <c r="C25" t="n">
-        <v>353.4995302903087</v>
+        <v>353.4995302903085</v>
       </c>
       <c r="D25" t="n">
-        <v>298.2821567741196</v>
+        <v>298.2821567741194</v>
       </c>
       <c r="E25" t="n">
-        <v>245.268329087873</v>
+        <v>245.2683290878729</v>
       </c>
       <c r="F25" t="n">
-        <v>193.2776474861093</v>
+        <v>193.2776474861092</v>
       </c>
       <c r="G25" t="n">
-        <v>120.4740767569748</v>
+        <v>120.4740767569747</v>
       </c>
       <c r="H25" t="n">
-        <v>69.15615587097918</v>
+        <v>69.15615587097911</v>
       </c>
       <c r="I25" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547105</v>
       </c>
       <c r="J25" t="n">
-        <v>171.5632686277238</v>
+        <v>139.8452415066265</v>
       </c>
       <c r="K25" t="n">
-        <v>362.8848934002074</v>
+        <v>331.1668662791101</v>
       </c>
       <c r="L25" t="n">
-        <v>611.6055078273778</v>
+        <v>486.8767102014674</v>
       </c>
       <c r="M25" t="n">
-        <v>872.0487596313887</v>
+        <v>747.3199620054785</v>
       </c>
       <c r="N25" t="n">
-        <v>1136.368367166049</v>
+        <v>1011.639569540139</v>
       </c>
       <c r="O25" t="n">
-        <v>1367.297486889052</v>
+        <v>1242.568689263142</v>
       </c>
       <c r="P25" t="n">
-        <v>1532.509172386994</v>
+        <v>1434.530462520714</v>
       </c>
       <c r="Q25" t="n">
-        <v>1545.429939745535</v>
+        <v>1540.462000384068</v>
       </c>
       <c r="R25" t="n">
         <v>1545.429939745535</v>
@@ -6178,19 +6178,19 @@
         <v>1321.77597193418</v>
       </c>
       <c r="U25" t="n">
-        <v>1127.572370955971</v>
+        <v>1127.57237095597</v>
       </c>
       <c r="V25" t="n">
-        <v>967.7871486462304</v>
+        <v>967.7871486462302</v>
       </c>
       <c r="W25" t="n">
-        <v>773.2692445054164</v>
+        <v>773.2692445054162</v>
       </c>
       <c r="X25" t="n">
-        <v>640.1789595035457</v>
+        <v>640.1789595035455</v>
       </c>
       <c r="Y25" t="n">
-        <v>514.2856462561622</v>
+        <v>514.285646256162</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1312.248927128596</v>
+        <v>1430.217783284952</v>
       </c>
       <c r="C26" t="n">
-        <v>990.736043136258</v>
+        <v>1108.704899292613</v>
       </c>
       <c r="D26" t="n">
-        <v>990.736043136258</v>
+        <v>797.8888336339356</v>
       </c>
       <c r="E26" t="n">
-        <v>652.3974234860871</v>
+        <v>797.8888336339356</v>
       </c>
       <c r="F26" t="n">
-        <v>316.8637120286306</v>
+        <v>434.3525617924013</v>
       </c>
       <c r="G26" t="n">
-        <v>316.8637120286306</v>
+        <v>66.72974458547105</v>
       </c>
       <c r="H26" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547105</v>
       </c>
       <c r="I26" t="n">
-        <v>66.7297445854711</v>
+        <v>72.07396936268091</v>
       </c>
       <c r="J26" t="n">
-        <v>255.6088755444965</v>
+        <v>260.9531003217063</v>
       </c>
       <c r="K26" t="n">
-        <v>600.0920287454398</v>
+        <v>594.7724740115527</v>
       </c>
       <c r="L26" t="n">
-        <v>1051.126241993848</v>
+        <v>1045.806687259961</v>
       </c>
       <c r="M26" t="n">
-        <v>1584.658146665773</v>
+        <v>1579.338591931886</v>
       </c>
       <c r="N26" t="n">
-        <v>2131.436963724555</v>
+        <v>2126.117408990668</v>
       </c>
       <c r="O26" t="n">
-        <v>2634.409434603892</v>
+        <v>2629.089879870005</v>
       </c>
       <c r="P26" t="n">
-        <v>3029.18380096107</v>
+        <v>3023.864246227183</v>
       </c>
       <c r="Q26" t="n">
-        <v>3277.470162716752</v>
+        <v>3272.150607982865</v>
       </c>
       <c r="R26" t="n">
-        <v>3336.487229273554</v>
+        <v>3336.487229273553</v>
       </c>
       <c r="S26" t="n">
-        <v>3273.646193748723</v>
+        <v>3273.646193748721</v>
       </c>
       <c r="T26" t="n">
-        <v>3115.118079081018</v>
+        <v>3115.118079081016</v>
       </c>
       <c r="U26" t="n">
-        <v>2909.037235302928</v>
+        <v>2909.037235302926</v>
       </c>
       <c r="V26" t="n">
-        <v>2625.423980907431</v>
+        <v>2625.423980907429</v>
       </c>
       <c r="W26" t="n">
-        <v>2320.10495858539</v>
+        <v>2320.104958585388</v>
       </c>
       <c r="X26" t="n">
-        <v>1994.088833272383</v>
+        <v>1994.088833272381</v>
       </c>
       <c r="Y26" t="n">
-        <v>1651.399134244645</v>
+        <v>1769.367990401</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.7614826343964</v>
+        <v>941.7614826343962</v>
       </c>
       <c r="C27" t="n">
-        <v>767.3084533532694</v>
+        <v>767.3084533532692</v>
       </c>
       <c r="D27" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920179</v>
       </c>
       <c r="E27" t="n">
-        <v>459.1365886865626</v>
+        <v>459.1365886865625</v>
       </c>
       <c r="F27" t="n">
-        <v>312.6020307134476</v>
+        <v>312.6020307134475</v>
       </c>
       <c r="G27" t="n">
-        <v>176.2389305460657</v>
+        <v>176.2389305460656</v>
       </c>
       <c r="H27" t="n">
-        <v>85.73703618393316</v>
+        <v>85.73703618393313</v>
       </c>
       <c r="I27" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547105</v>
       </c>
       <c r="J27" t="n">
-        <v>160.4070140760884</v>
+        <v>160.4070140760883</v>
       </c>
       <c r="K27" t="n">
-        <v>398.6712130564355</v>
+        <v>398.6712130564354</v>
       </c>
       <c r="L27" t="n">
         <v>765.3693733691007</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.645698591416</v>
+        <v>1212.645698591417</v>
       </c>
       <c r="N27" t="n">
         <v>1686.168742145871</v>
@@ -6333,13 +6333,13 @@
         <v>2435.688930772624</v>
       </c>
       <c r="T27" t="n">
-        <v>2243.04593045048</v>
+        <v>2243.045930450479</v>
       </c>
       <c r="U27" t="n">
         <v>2014.978083584895</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.825975353153</v>
+        <v>1779.825975353152</v>
       </c>
       <c r="W27" t="n">
         <v>1525.588618624951</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>759.683877958582</v>
+        <v>759.6838779585823</v>
       </c>
       <c r="C28" t="n">
-        <v>638.1973279787484</v>
+        <v>638.1973279787487</v>
       </c>
       <c r="D28" t="n">
-        <v>535.530321514486</v>
+        <v>535.5303215144862</v>
       </c>
       <c r="E28" t="n">
-        <v>435.0668608801662</v>
+        <v>435.0668608801664</v>
       </c>
       <c r="F28" t="n">
-        <v>335.6265463303291</v>
+        <v>335.6265463303292</v>
       </c>
       <c r="G28" t="n">
         <v>215.3733426531214</v>
       </c>
       <c r="H28" t="n">
-        <v>116.6057888190524</v>
+        <v>116.6057888190525</v>
       </c>
       <c r="I28" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547105</v>
       </c>
       <c r="J28" t="n">
-        <v>158.3577622848133</v>
+        <v>158.3577622848132</v>
       </c>
       <c r="K28" t="n">
-        <v>408.8503304860963</v>
+        <v>408.8503304860961</v>
       </c>
       <c r="L28" t="n">
-        <v>771.915514186999</v>
+        <v>771.9155141869987</v>
       </c>
       <c r="M28" t="n">
         <v>1162.577945038955</v>
       </c>
       <c r="N28" t="n">
-        <v>1550.491706997226</v>
+        <v>1550.491706997227</v>
       </c>
       <c r="O28" t="n">
-        <v>1896.326691170046</v>
+        <v>1896.326691170047</v>
       </c>
       <c r="P28" t="n">
-        <v>2175.439576856112</v>
+        <v>2175.439576856113</v>
       </c>
       <c r="Q28" t="n">
-        <v>2299.555258261033</v>
+        <v>2299.555258261034</v>
       </c>
       <c r="R28" t="n">
-        <v>2257.174433966634</v>
+        <v>2257.174433966635</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.938182741534</v>
+        <v>2112.938182741535</v>
       </c>
       <c r="T28" t="n">
-        <v>1938.621200259133</v>
+        <v>1938.621200259134</v>
       </c>
       <c r="U28" t="n">
-        <v>1696.96796633285</v>
+        <v>1696.967966332851</v>
       </c>
       <c r="V28" t="n">
         <v>1489.733111075037</v>
       </c>
       <c r="W28" t="n">
-        <v>1247.765573986149</v>
+        <v>1247.76557398615</v>
       </c>
       <c r="X28" t="n">
-        <v>1067.225656036205</v>
+        <v>1067.225656036206</v>
       </c>
       <c r="Y28" t="n">
-        <v>893.8827098407485</v>
+        <v>893.8827098407488</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1375.089962653427</v>
+        <v>1680.351750728111</v>
       </c>
       <c r="C29" t="n">
-        <v>1053.577078661089</v>
+        <v>1358.838866735772</v>
       </c>
       <c r="D29" t="n">
-        <v>742.7610130024118</v>
+        <v>1048.022801077095</v>
       </c>
       <c r="E29" t="n">
-        <v>430.2660164270054</v>
+        <v>1048.022801077095</v>
       </c>
       <c r="F29" t="n">
-        <v>66.7297445854711</v>
+        <v>684.4865292355607</v>
       </c>
       <c r="G29" t="n">
-        <v>66.7297445854711</v>
+        <v>316.8637120286305</v>
       </c>
       <c r="H29" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547105</v>
       </c>
       <c r="I29" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547105</v>
       </c>
       <c r="J29" t="n">
-        <v>255.6088755444965</v>
+        <v>255.6088755444964</v>
       </c>
       <c r="K29" t="n">
         <v>589.4282492343428</v>
@@ -6470,43 +6470,43 @@
         <v>1040.462462482752</v>
       </c>
       <c r="M29" t="n">
-        <v>1584.658146665773</v>
+        <v>1584.658146665771</v>
       </c>
       <c r="N29" t="n">
-        <v>2131.436963724555</v>
+        <v>2131.436963724553</v>
       </c>
       <c r="O29" t="n">
-        <v>2634.409434603892</v>
+        <v>2634.40943460389</v>
       </c>
       <c r="P29" t="n">
-        <v>3029.18380096107</v>
+        <v>3029.183800961068</v>
       </c>
       <c r="Q29" t="n">
-        <v>3277.470162716752</v>
+        <v>3277.47016271675</v>
       </c>
       <c r="R29" t="n">
-        <v>3336.487229273554</v>
+        <v>3336.487229273553</v>
       </c>
       <c r="S29" t="n">
-        <v>3336.487229273554</v>
+        <v>3273.646193748721</v>
       </c>
       <c r="T29" t="n">
-        <v>3177.95911460585</v>
+        <v>3115.118079081016</v>
       </c>
       <c r="U29" t="n">
-        <v>2971.878270827759</v>
+        <v>2909.037235302926</v>
       </c>
       <c r="V29" t="n">
-        <v>2688.265016432262</v>
+        <v>2625.423980907429</v>
       </c>
       <c r="W29" t="n">
-        <v>2382.945994110221</v>
+        <v>2320.104958585388</v>
       </c>
       <c r="X29" t="n">
-        <v>2056.929868797215</v>
+        <v>2320.104958585388</v>
       </c>
       <c r="Y29" t="n">
-        <v>1714.240169769476</v>
+        <v>2019.501957844159</v>
       </c>
     </row>
     <row r="30">
@@ -6534,16 +6534,16 @@
         <v>176.2389305460652</v>
       </c>
       <c r="H30" t="n">
-        <v>85.73703618393316</v>
+        <v>85.73703618393313</v>
       </c>
       <c r="I30" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547105</v>
       </c>
       <c r="J30" t="n">
-        <v>160.4070140760884</v>
+        <v>160.4070140760883</v>
       </c>
       <c r="K30" t="n">
-        <v>398.6712130564355</v>
+        <v>398.6712130564354</v>
       </c>
       <c r="L30" t="n">
         <v>765.3693733691007</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.6838779585821</v>
+        <v>759.6838779585819</v>
       </c>
       <c r="C31" t="n">
-        <v>638.1973279787485</v>
+        <v>638.1973279787483</v>
       </c>
       <c r="D31" t="n">
-        <v>535.5303215144861</v>
+        <v>535.5303215144859</v>
       </c>
       <c r="E31" t="n">
-        <v>435.0668608801662</v>
+        <v>435.0668608801661</v>
       </c>
       <c r="F31" t="n">
-        <v>335.6265463303292</v>
+        <v>335.6265463303291</v>
       </c>
       <c r="G31" t="n">
-        <v>215.3733426531214</v>
+        <v>215.3733426531212</v>
       </c>
       <c r="H31" t="n">
-        <v>116.6057888190525</v>
+        <v>116.6057888190524</v>
       </c>
       <c r="I31" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547105</v>
       </c>
       <c r="J31" t="n">
         <v>158.3577622848132</v>
       </c>
       <c r="K31" t="n">
-        <v>408.8503304860961</v>
+        <v>408.8503304860965</v>
       </c>
       <c r="L31" t="n">
         <v>771.915514186999</v>
       </c>
       <c r="M31" t="n">
-        <v>1162.577945038954</v>
+        <v>1162.577945038955</v>
       </c>
       <c r="N31" t="n">
-        <v>1550.491706997225</v>
+        <v>1550.491706997226</v>
       </c>
       <c r="O31" t="n">
-        <v>1896.326691170045</v>
+        <v>1896.326691170046</v>
       </c>
       <c r="P31" t="n">
-        <v>2175.439576856111</v>
+        <v>2175.439576856112</v>
       </c>
       <c r="Q31" t="n">
         <v>2299.555258261033</v>
@@ -6649,22 +6649,22 @@
         <v>2112.938182741534</v>
       </c>
       <c r="T31" t="n">
-        <v>1938.621200259134</v>
+        <v>1938.621200259133</v>
       </c>
       <c r="U31" t="n">
-        <v>1696.967966332851</v>
+        <v>1696.96796633285</v>
       </c>
       <c r="V31" t="n">
         <v>1489.733111075037</v>
       </c>
       <c r="W31" t="n">
-        <v>1247.76557398615</v>
+        <v>1247.765573986149</v>
       </c>
       <c r="X31" t="n">
         <v>1067.225656036205</v>
       </c>
       <c r="Y31" t="n">
-        <v>893.8827098407485</v>
+        <v>893.8827098407482</v>
       </c>
     </row>
     <row r="32">
@@ -6683,61 +6683,61 @@
         <v>1184.521008370213</v>
       </c>
       <c r="E32" t="n">
-        <v>896.6424918093051</v>
+        <v>896.6424918093057</v>
       </c>
       <c r="F32" t="n">
-        <v>583.566323057034</v>
+        <v>583.5663230570349</v>
       </c>
       <c r="G32" t="n">
-        <v>266.4036089393674</v>
+        <v>266.4036089393671</v>
       </c>
       <c r="H32" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547105</v>
       </c>
       <c r="I32" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547105</v>
       </c>
       <c r="J32" t="n">
-        <v>255.6088755444965</v>
+        <v>255.6088755444964</v>
       </c>
       <c r="K32" t="n">
         <v>589.4282492343428</v>
       </c>
       <c r="L32" t="n">
-        <v>1051.126241993848</v>
+        <v>1040.462462482752</v>
       </c>
       <c r="M32" t="n">
-        <v>1584.658146665773</v>
+        <v>1573.994367154676</v>
       </c>
       <c r="N32" t="n">
-        <v>2131.436963724555</v>
+        <v>2120.773184213458</v>
       </c>
       <c r="O32" t="n">
-        <v>2634.409434603892</v>
+        <v>2623.745655092795</v>
       </c>
       <c r="P32" t="n">
-        <v>3029.18380096107</v>
+        <v>3029.183800961068</v>
       </c>
       <c r="Q32" t="n">
-        <v>3277.470162716752</v>
+        <v>3277.47016271675</v>
       </c>
       <c r="R32" t="n">
-        <v>3336.487229273554</v>
+        <v>3336.487229273553</v>
       </c>
       <c r="S32" t="n">
-        <v>3324.106296837986</v>
+        <v>3324.106296837985</v>
       </c>
       <c r="T32" t="n">
-        <v>3216.038285259544</v>
+        <v>3216.038285259543</v>
       </c>
       <c r="U32" t="n">
-        <v>3060.417544570718</v>
+        <v>3060.417544570716</v>
       </c>
       <c r="V32" t="n">
-        <v>2827.264393264484</v>
+        <v>2827.264393264482</v>
       </c>
       <c r="W32" t="n">
-        <v>2572.405474031706</v>
+        <v>2572.405474031705</v>
       </c>
       <c r="X32" t="n">
         <v>2296.849451807962</v>
@@ -6753,52 +6753,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.7614826343964</v>
+        <v>941.7614826343959</v>
       </c>
       <c r="C33" t="n">
-        <v>767.3084533532694</v>
+        <v>767.3084533532689</v>
       </c>
       <c r="D33" t="n">
-        <v>618.3740436920182</v>
+        <v>618.3740436920176</v>
       </c>
       <c r="E33" t="n">
-        <v>459.1365886865626</v>
+        <v>459.1365886865621</v>
       </c>
       <c r="F33" t="n">
-        <v>312.6020307134476</v>
+        <v>312.6020307134471</v>
       </c>
       <c r="G33" t="n">
-        <v>176.2389305460657</v>
+        <v>176.2389305460652</v>
       </c>
       <c r="H33" t="n">
-        <v>85.73703618393316</v>
+        <v>85.73703618393313</v>
       </c>
       <c r="I33" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547105</v>
       </c>
       <c r="J33" t="n">
-        <v>160.4070140760884</v>
+        <v>160.4070140760883</v>
       </c>
       <c r="K33" t="n">
-        <v>398.6712130564355</v>
+        <v>398.6712130564354</v>
       </c>
       <c r="L33" t="n">
-        <v>765.3693733691018</v>
+        <v>765.3693733691007</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.645698591418</v>
+        <v>1212.645698591416</v>
       </c>
       <c r="N33" t="n">
-        <v>1686.168742145872</v>
+        <v>1686.168742145871</v>
       </c>
       <c r="O33" t="n">
-        <v>2097.130021563927</v>
+        <v>2097.130021563926</v>
       </c>
       <c r="P33" t="n">
         <v>2407.629613040029</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.271170686629</v>
+        <v>2565.271170686628</v>
       </c>
       <c r="R33" t="n">
         <v>2565.126817279144</v>
@@ -6807,13 +6807,13 @@
         <v>2435.688930772624</v>
       </c>
       <c r="T33" t="n">
-        <v>2243.04593045048</v>
+        <v>2243.045930450479</v>
       </c>
       <c r="U33" t="n">
         <v>2014.978083584895</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.825975353153</v>
+        <v>1779.825975353152</v>
       </c>
       <c r="W33" t="n">
         <v>1525.588618624951</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>407.0472151894215</v>
+        <v>407.0472151894202</v>
       </c>
       <c r="C34" t="n">
-        <v>336.0207682988511</v>
+        <v>336.02076829885</v>
       </c>
       <c r="D34" t="n">
-        <v>283.8138649238518</v>
+        <v>283.813864923851</v>
       </c>
       <c r="E34" t="n">
-        <v>233.8105073787952</v>
+        <v>233.8105073787946</v>
       </c>
       <c r="F34" t="n">
-        <v>184.8302959182213</v>
+        <v>184.8302959182209</v>
       </c>
       <c r="G34" t="n">
-        <v>115.0371953302768</v>
+        <v>115.0371953302766</v>
       </c>
       <c r="H34" t="n">
-        <v>66.7297445854711</v>
+        <v>66.72974458547105</v>
       </c>
       <c r="I34" t="n">
-        <v>66.7297445854711</v>
+        <v>67.30218066992502</v>
       </c>
       <c r="J34" t="n">
-        <v>82.53681689364512</v>
+        <v>175.0862664975581</v>
       </c>
       <c r="K34" t="n">
-        <v>180.8476711613154</v>
+        <v>369.3584530554222</v>
       </c>
       <c r="L34" t="n">
-        <v>432.5188473738662</v>
+        <v>621.0296292679731</v>
       </c>
       <c r="M34" t="n">
-        <v>695.9126609632574</v>
+        <v>788.4621105671708</v>
       </c>
       <c r="N34" t="n">
-        <v>963.1828302832984</v>
+        <v>1051.225661426642</v>
       </c>
       <c r="O34" t="n">
-        <v>1197.062511791682</v>
+        <v>1285.105342935025</v>
       </c>
       <c r="P34" t="n">
-        <v>1391.974846834634</v>
+        <v>1384.056345687784</v>
       </c>
       <c r="Q34" t="n">
-        <v>1500.856946483368</v>
+        <v>1492.938445336518</v>
       </c>
       <c r="R34" t="n">
-        <v>1500.856946483368</v>
+        <v>1500.856946483365</v>
       </c>
       <c r="S34" t="n">
-        <v>1407.080798347531</v>
+        <v>1407.080798347528</v>
       </c>
       <c r="T34" t="n">
-        <v>1283.223918954393</v>
+        <v>1283.223918954391</v>
       </c>
       <c r="U34" t="n">
-        <v>1092.030788117374</v>
+        <v>1092.030788117371</v>
       </c>
       <c r="V34" t="n">
-        <v>935.2560359488232</v>
+        <v>935.256035948821</v>
       </c>
       <c r="W34" t="n">
-        <v>743.748601949199</v>
+        <v>743.7486019491971</v>
       </c>
       <c r="X34" t="n">
-        <v>613.6687870885182</v>
+        <v>613.6687870885165</v>
       </c>
       <c r="Y34" t="n">
-        <v>490.7859439823247</v>
+        <v>490.7859439823231</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464966</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
         <v>581.8252978307328</v>
@@ -6935,25 +6935,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
@@ -6971,7 +6971,7 @@
         <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049856</v>
@@ -6980,7 +6980,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -7005,10 +7005,10 @@
         <v>312.3844025601587</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
@@ -7093,28 +7093,28 @@
         <v>67.83109325226759</v>
       </c>
       <c r="J37" t="n">
-        <v>176.3617198155309</v>
+        <v>79.65384678970702</v>
       </c>
       <c r="K37" t="n">
-        <v>358.9027651347971</v>
+        <v>274.6725740832013</v>
       </c>
       <c r="L37" t="n">
-        <v>514.6126090571543</v>
+        <v>527.0902910313823</v>
       </c>
       <c r="M37" t="n">
-        <v>778.7529633821759</v>
+        <v>770.087921499699</v>
       </c>
       <c r="N37" t="n">
-        <v>1046.769673437847</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O37" t="n">
-        <v>1281.395895681861</v>
+        <v>1272.730853799384</v>
       </c>
       <c r="P37" t="n">
-        <v>1380.34689843462</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q37" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R37" t="n">
         <v>1489.975538818984</v>
@@ -7148,70 +7148,70 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F38" t="n">
         <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495726</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710107</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X38" t="n">
         <v>2290.538235362619</v>
@@ -7236,19 +7236,19 @@
         <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170921</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630286</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245364</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226764</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J40" t="n">
-        <v>155.2189959588249</v>
+        <v>155.2189959588227</v>
       </c>
       <c r="K40" t="n">
-        <v>350.2377232523191</v>
+        <v>253.529850226493</v>
       </c>
       <c r="L40" t="n">
-        <v>505.9475671746764</v>
+        <v>505.9475671746743</v>
       </c>
       <c r="M40" t="n">
-        <v>770.087921499698</v>
+        <v>770.0879214996961</v>
       </c>
       <c r="N40" t="n">
-        <v>1038.104631555369</v>
+        <v>1038.104631555368</v>
       </c>
       <c r="O40" t="n">
-        <v>1272.730853799383</v>
+        <v>1272.730853799381</v>
       </c>
       <c r="P40" t="n">
-        <v>1468.389729577966</v>
+        <v>1468.389729577964</v>
       </c>
       <c r="Q40" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936505</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818982</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363021</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304662</v>
+        <v>927.4214224304652</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673482</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431751</v>
+        <v>607.3575706431743</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734884</v>
+        <v>485.2364260734877</v>
       </c>
     </row>
     <row r="41">
@@ -7394,67 +7394,67 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464971</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F41" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307333</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495726</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X41" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7506,31 +7506,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
         <v>1109.759191501176</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170921</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630286</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245364</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226765</v>
+        <v>67.83109325226771</v>
       </c>
       <c r="J43" t="n">
-        <v>176.361719815531</v>
+        <v>79.65384678970713</v>
       </c>
       <c r="K43" t="n">
-        <v>371.3804471090253</v>
+        <v>253.5298502264929</v>
       </c>
       <c r="L43" t="n">
-        <v>611.3204820829772</v>
+        <v>505.9475671746742</v>
       </c>
       <c r="M43" t="n">
-        <v>875.460836407999</v>
+        <v>770.087921499696</v>
       </c>
       <c r="N43" t="n">
-        <v>1046.769673437846</v>
+        <v>941.3967585295435</v>
       </c>
       <c r="O43" t="n">
-        <v>1281.39589568186</v>
+        <v>1176.022980773557</v>
       </c>
       <c r="P43" t="n">
-        <v>1477.054771460443</v>
+        <v>1371.68185655214</v>
       </c>
       <c r="Q43" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936505</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818982</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363021</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304662</v>
+        <v>927.4214224304652</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673482</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431751</v>
+        <v>607.3575706431743</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734884</v>
+        <v>485.2364260734877</v>
       </c>
     </row>
     <row r="44">
@@ -7628,58 +7628,58 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F44" t="n">
         <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495726</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.39124739121</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
         <v>2819.429779746127</v>
@@ -7691,7 +7691,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170923</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630288</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245365</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>67.83109325226762</v>
+        <v>67.83109325226771</v>
       </c>
       <c r="J46" t="n">
-        <v>79.65384678970705</v>
+        <v>176.3617198155312</v>
       </c>
       <c r="K46" t="n">
-        <v>274.6725740832013</v>
+        <v>274.6725740832015</v>
       </c>
       <c r="L46" t="n">
-        <v>527.0902910313824</v>
+        <v>527.0902910313828</v>
       </c>
       <c r="M46" t="n">
-        <v>791.2306453564041</v>
+        <v>791.2306453564046</v>
       </c>
       <c r="N46" t="n">
-        <v>1059.247355412076</v>
+        <v>962.5394823862521</v>
       </c>
       <c r="O46" t="n">
-        <v>1197.165704630265</v>
+        <v>1176.022980773557</v>
       </c>
       <c r="P46" t="n">
-        <v>1371.681856552142</v>
+        <v>1371.68185655214</v>
       </c>
       <c r="Q46" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936505</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818982</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T46" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363021</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304662</v>
+        <v>927.4214224304652</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673482</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431752</v>
+        <v>607.3575706431743</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734886</v>
+        <v>485.2364260734877</v>
       </c>
     </row>
   </sheetData>
@@ -10039,7 +10039,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094457</v>
+        <v>178.5096609094469</v>
       </c>
       <c r="N28" t="n">
         <v>171.8177168444618</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D11" t="n">
-        <v>94.2018152279621</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>55.87771033587234</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>35.71613504204424</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>102.4006336413272</v>
       </c>
     </row>
     <row r="15">
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>52.28225787287724</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>52.28225787287553</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>52.2822578728767</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>52.28225787287546</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24212,13 +24212,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>41.72511615689299</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>41.72511615689331</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24446,19 +24446,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F26" t="n">
-        <v>27.72253478023669</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>116.7891675947935</v>
       </c>
     </row>
     <row r="27">
@@ -24686,16 +24686,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>25.58518684401709</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687278</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958332</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24743,10 +24743,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>41.66583130364432</v>
       </c>
     </row>
     <row r="30">
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>740333.1705906341</v>
+        <v>740333.170590634</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>741131.5016471968</v>
+        <v>741131.5016471967</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>741131.5016471967</v>
+        <v>741131.5016471968</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>655421.0709736308</v>
       </c>
       <c r="C2" t="n">
-        <v>655421.0709736308</v>
+        <v>655421.0709736305</v>
       </c>
       <c r="D2" t="n">
-        <v>655424.1858302917</v>
+        <v>655424.1858302914</v>
       </c>
       <c r="E2" t="n">
-        <v>611624.8079118743</v>
+        <v>611624.8079118741</v>
       </c>
       <c r="F2" t="n">
-        <v>611624.8079118739</v>
+        <v>611624.8079118741</v>
       </c>
       <c r="G2" t="n">
         <v>653504.0817100824</v>
       </c>
       <c r="H2" t="n">
-        <v>653504.0817100827</v>
+        <v>653504.0817100821</v>
       </c>
       <c r="I2" t="n">
-        <v>654176.3604945559</v>
+        <v>654176.3604945566</v>
       </c>
       <c r="J2" t="n">
-        <v>612297.086696347</v>
+        <v>612297.0866963466</v>
       </c>
       <c r="K2" t="n">
-        <v>612297.086696348</v>
+        <v>612297.0866963482</v>
       </c>
       <c r="L2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914261</v>
       </c>
       <c r="M2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="N2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="O2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="P2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914264</v>
       </c>
     </row>
     <row r="3">
@@ -26369,22 +26369,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>10420.33926655796</v>
+        <v>10420.33926655715</v>
       </c>
       <c r="E3" t="n">
-        <v>1151572.830875717</v>
+        <v>1151572.830875718</v>
       </c>
       <c r="F3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>4.272219484846573e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487421</v>
+        <v>37580.10929487401</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>723.3987018799232</v>
+        <v>723.398701879924</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>77544.51094157052</v>
+        <v>77544.51094157077</v>
       </c>
       <c r="M3" t="n">
-        <v>207113.9109540876</v>
+        <v>207113.9109540874</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.641531071072677e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,28 +26421,28 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>463375.0335747246</v>
+        <v>463375.0335747249</v>
       </c>
       <c r="E4" t="n">
+        <v>61875.22120367247</v>
+      </c>
+      <c r="F4" t="n">
         <v>61875.22120367236</v>
       </c>
-      <c r="F4" t="n">
-        <v>61875.22120367244</v>
-      </c>
       <c r="G4" t="n">
-        <v>91416.0130675504</v>
+        <v>91416.01306755049</v>
       </c>
       <c r="H4" t="n">
-        <v>91416.0130675504</v>
+        <v>91416.01306755051</v>
       </c>
       <c r="I4" t="n">
-        <v>91906.68112942859</v>
+        <v>91906.68112942843</v>
       </c>
       <c r="J4" t="n">
-        <v>62365.88926555063</v>
+        <v>62365.88926555048</v>
       </c>
       <c r="K4" t="n">
-        <v>62365.88926555058</v>
+        <v>62365.88926555056</v>
       </c>
       <c r="L4" t="n">
         <v>93788.48670920235</v>
@@ -26454,10 +26454,10 @@
         <v>93774.13782657708</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.13782657702</v>
+        <v>93774.13782657712</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.13782657702</v>
+        <v>93774.13782657712</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33892.84951251493</v>
+        <v>33892.84951251491</v>
       </c>
       <c r="E5" t="n">
+        <v>78255.49332178172</v>
+      </c>
+      <c r="F5" t="n">
         <v>78255.49332178175</v>
-      </c>
-      <c r="F5" t="n">
-        <v>78255.49332178173</v>
       </c>
       <c r="G5" t="n">
         <v>82204.64608217022</v>
@@ -26488,13 +26488,13 @@
         <v>82204.64608217022</v>
       </c>
       <c r="I5" t="n">
-        <v>82370.04347866884</v>
+        <v>82370.04347866881</v>
       </c>
       <c r="J5" t="n">
-        <v>78420.89071828038</v>
+        <v>78420.89071828035</v>
       </c>
       <c r="K5" t="n">
-        <v>78420.89071828038</v>
+        <v>78420.89071828037</v>
       </c>
       <c r="L5" t="n">
         <v>82620.59982082553</v>
@@ -26503,13 +26503,13 @@
         <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>154177.5110418995</v>
+        <v>154173.0974640314</v>
       </c>
       <c r="C6" t="n">
-        <v>154177.5110418995</v>
+        <v>154173.0974640312</v>
       </c>
       <c r="D6" t="n">
-        <v>147735.9634764942</v>
+        <v>147731.5596325533</v>
       </c>
       <c r="E6" t="n">
-        <v>-680078.7374892972</v>
+        <v>-680220.0143892342</v>
       </c>
       <c r="F6" t="n">
-        <v>471494.0933864197</v>
+        <v>471352.8164864835</v>
       </c>
       <c r="G6" t="n">
-        <v>442303.3132654876</v>
+        <v>442292.909096171</v>
       </c>
       <c r="H6" t="n">
-        <v>479883.4225603621</v>
+        <v>479873.0183910448</v>
       </c>
       <c r="I6" t="n">
-        <v>479176.2371845786</v>
+        <v>479167.9338864643</v>
       </c>
       <c r="J6" t="n">
-        <v>471510.3067125159</v>
+        <v>471371.1306837813</v>
       </c>
       <c r="K6" t="n">
-        <v>471510.3067125171</v>
+        <v>471371.1306837827</v>
       </c>
       <c r="L6" t="n">
-        <v>402879.8184198282</v>
+        <v>402879.8184198275</v>
       </c>
       <c r="M6" t="n">
-        <v>273426.7698045123</v>
+        <v>273426.7698045124</v>
       </c>
       <c r="N6" t="n">
-        <v>480540.6807585998</v>
+        <v>480540.6807585996</v>
       </c>
       <c r="O6" t="n">
-        <v>480540.6807585998</v>
+        <v>480540.6807585995</v>
       </c>
       <c r="P6" t="n">
-        <v>480540.6807585996</v>
+        <v>480540.6807585995</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>46.97513661859261</v>
+      </c>
+      <c r="F2" t="n">
         <v>46.97513661859254</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>93.95027323718527</v>
+      </c>
+      <c r="H2" t="n">
+        <v>93.95027323718527</v>
+      </c>
+      <c r="I2" t="n">
+        <v>93.95027323718513</v>
+      </c>
+      <c r="J2" t="n">
+        <v>46.97513661859251</v>
+      </c>
+      <c r="K2" t="n">
         <v>46.97513661859259</v>
       </c>
-      <c r="G2" t="n">
-        <v>93.95027323718516</v>
-      </c>
-      <c r="H2" t="n">
-        <v>93.95027323718516</v>
-      </c>
-      <c r="I2" t="n">
-        <v>93.95027323718512</v>
-      </c>
-      <c r="J2" t="n">
-        <v>46.97513661859257</v>
-      </c>
-      <c r="K2" t="n">
-        <v>46.97513661859254</v>
-      </c>
       <c r="L2" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="M2" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.16740883096021</v>
+        <v>12.16740883095927</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022922</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022923</v>
-      </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>834.1218073183887</v>
+        <v>834.1218073183882</v>
       </c>
       <c r="J4" t="n">
-        <v>834.1218073183886</v>
+        <v>834.1218073183882</v>
       </c>
       <c r="K4" t="n">
-        <v>834.1218073183886</v>
+        <v>834.1218073183882</v>
       </c>
       <c r="L4" t="n">
-        <v>834.1218073183886</v>
+        <v>834.1218073183882</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26914,19 +26914,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859274</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>96.93063867696316</v>
+        <v>96.93063867696347</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7540815511418231</v>
+        <v>0.7540815511416241</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.16740883096021</v>
+        <v>12.16740883095927</v>
       </c>
       <c r="E3" t="n">
-        <v>1077.609291762338</v>
+        <v>1077.609291762339</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,19 +27018,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.720351916095865</v>
+        <v>2.720351916095524</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859274</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27868,40 +27868,40 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.9738594999276</v>
+        <v>338.9738594999277</v>
       </c>
       <c r="I8" t="n">
-        <v>208.5901246298809</v>
+        <v>208.590124629881</v>
       </c>
       <c r="J8" t="n">
-        <v>176.8943724050111</v>
+        <v>176.8943724050114</v>
       </c>
       <c r="K8" t="n">
-        <v>213.867780568272</v>
+        <v>213.8677805682725</v>
       </c>
       <c r="L8" t="n">
-        <v>228.0473863505229</v>
+        <v>228.0473863505235</v>
       </c>
       <c r="M8" t="n">
-        <v>221.7573265905316</v>
+        <v>221.7573265905323</v>
       </c>
       <c r="N8" t="n">
-        <v>220.6851794710419</v>
+        <v>220.6851794710426</v>
       </c>
       <c r="O8" t="n">
-        <v>221.8567179355864</v>
+        <v>221.8567179355871</v>
       </c>
       <c r="P8" t="n">
-        <v>224.1990717385736</v>
+        <v>224.1990717385741</v>
       </c>
       <c r="Q8" t="n">
-        <v>217.0235058728641</v>
+        <v>217.0235058728645</v>
       </c>
       <c r="R8" t="n">
-        <v>212.512930799146</v>
+        <v>212.5129307991462</v>
       </c>
       <c r="S8" t="n">
-        <v>207.9054371089167</v>
+        <v>207.9054371089168</v>
       </c>
       <c r="T8" t="n">
         <v>222.8817276258096</v>
@@ -27950,37 +27950,37 @@
         <v>111.9826835360646</v>
       </c>
       <c r="I9" t="n">
-        <v>98.62130302525436</v>
+        <v>98.62130302525443</v>
       </c>
       <c r="J9" t="n">
-        <v>124.3650025758392</v>
+        <v>124.3650025758394</v>
       </c>
       <c r="K9" t="n">
-        <v>133.6153305693641</v>
+        <v>133.6153305693644</v>
       </c>
       <c r="L9" t="n">
-        <v>132.8718554951885</v>
+        <v>132.8718554951889</v>
       </c>
       <c r="M9" t="n">
-        <v>135.502796109145</v>
+        <v>135.5027961091455</v>
       </c>
       <c r="N9" t="n">
-        <v>124.5349651374172</v>
+        <v>124.5349651374177</v>
       </c>
       <c r="O9" t="n">
-        <v>136.3694007948869</v>
+        <v>136.3694007948874</v>
       </c>
       <c r="P9" t="n">
-        <v>128.976816417327</v>
+        <v>128.9768164173274</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.6410168537926</v>
+        <v>136.6410168537928</v>
       </c>
       <c r="R9" t="n">
-        <v>144.0545809506519</v>
+        <v>144.0545809506521</v>
       </c>
       <c r="S9" t="n">
-        <v>171.1970486849782</v>
+        <v>171.1970486849783</v>
       </c>
       <c r="T9" t="n">
         <v>200.0592395559947</v>
@@ -28032,34 +28032,34 @@
         <v>154.7906423303269</v>
       </c>
       <c r="J10" t="n">
-        <v>125.444176546308</v>
+        <v>125.4441765463081</v>
       </c>
       <c r="K10" t="n">
-        <v>126.46408628759</v>
+        <v>126.4640862875901</v>
       </c>
       <c r="L10" t="n">
-        <v>131.6226139202297</v>
+        <v>131.62261392023</v>
       </c>
       <c r="M10" t="n">
-        <v>135.4863965628141</v>
+        <v>135.4863965628144</v>
       </c>
       <c r="N10" t="n">
-        <v>124.3279380250438</v>
+        <v>124.327938025044</v>
       </c>
       <c r="O10" t="n">
-        <v>135.3552454599777</v>
+        <v>135.355245459978</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0743121296871</v>
+        <v>135.0743121296873</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.6677228959709</v>
+        <v>149.667722895971</v>
       </c>
       <c r="R10" t="n">
-        <v>176.306833933269</v>
+        <v>176.3068339332691</v>
       </c>
       <c r="S10" t="n">
-        <v>223.6342222545304</v>
+        <v>223.6342222545305</v>
       </c>
       <c r="T10" t="n">
         <v>227.8518405405675</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="12">
@@ -28175,7 +28175,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1.648459146963432e-12</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="15">
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="C17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="D17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="E17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="F17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="G17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="H17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="T17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="U17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="V17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="W17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="X17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
     </row>
     <row r="18">
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="C19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="D19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="E19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="F19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="G19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="H19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="I19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="J19" t="n">
-        <v>61.91186200375279</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>93.95027323718516</v>
+        <v>61.91186200375068</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="M19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="N19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="O19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="P19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="R19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="S19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="T19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="U19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="V19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="W19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="X19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="C20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="D20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="E20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="F20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="G20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="H20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="T20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="U20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="V20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="W20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="X20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="C22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="D22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="E22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="F22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="G22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="H22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="I22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="J22" t="n">
-        <v>93.95027323718516</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>61.9118620037527</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="L22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="M22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="N22" t="n">
-        <v>93.95027323718516</v>
+        <v>61.91186200375071</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="P22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="R22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="S22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="T22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="U22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="V22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="W22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="X22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.95027323718516</v>
+        <v>93.95027323718527</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="C23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="D23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="E23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="F23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="G23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="H23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>10.77149445565041</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29077,7 +29077,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>10.77149445565374</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="T23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="U23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="V23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="W23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="X23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
     </row>
     <row r="24">
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>4.592992652874273e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="C25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="D25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="E25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="F25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="G25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="H25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="I25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="J25" t="n">
-        <v>93.95027323718512</v>
+        <v>61.9118620037535</v>
       </c>
       <c r="K25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="L25" t="n">
-        <v>93.95027323718512</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="N25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="O25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="P25" t="n">
-        <v>66.92998257089187</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="S25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="T25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="U25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="V25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="W25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="X25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.95027323718512</v>
+        <v>93.95027323718513</v>
       </c>
     </row>
     <row r="26">
@@ -29272,34 +29272,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>10.77149445565351</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -29320,28 +29320,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>5.373287609984999</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="27">
@@ -29405,7 +29405,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29542,7 +29542,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>10.77149445565351</v>
+        <v>10.77149445565169</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29606,7 +29606,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>4.405364961712621e-13</v>
+        <v>4.121147867408581e-13</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="C32" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="D32" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="E32" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="F32" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="G32" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="H32" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29776,7 +29776,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>10.77149445565351</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29788,7 +29788,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>10.77149445565146</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="T32" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="U32" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="V32" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="W32" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="X32" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="Y32" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
     </row>
     <row r="33">
@@ -29843,7 +29843,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>4.121147867408581e-13</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="C34" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="D34" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="E34" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="F34" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="G34" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="H34" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="J34" t="n">
-        <v>4.024564414883432</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="L34" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="M34" t="n">
-        <v>96.93063867696313</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>96.93063867696313</v>
+        <v>92.37849881780159</v>
       </c>
       <c r="O34" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="P34" t="n">
-        <v>96.93063867696313</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="S34" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="T34" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="U34" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="V34" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="W34" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="X34" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
       <c r="Y34" t="n">
-        <v>96.93063867696313</v>
+        <v>96.93063867696333</v>
       </c>
     </row>
     <row r="35">
@@ -30077,13 +30077,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30165,16 +30165,16 @@
         <v>97.68472022810495</v>
       </c>
       <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>97.68472022810495</v>
       </c>
-      <c r="K37" t="n">
-        <v>85.08100106221798</v>
-      </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M37" t="n">
-        <v>97.68472022810495</v>
+        <v>76.32843350416047</v>
       </c>
       <c r="N37" t="n">
         <v>97.68472022810495</v>
@@ -30189,7 +30189,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S37" t="n">
         <v>97.68472022810495</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30250,7 +30250,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30265,31 +30265,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="39">
@@ -30308,13 +30308,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68472022810499</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
-        <v>76.32843350415941</v>
+        <v>77.66073332242415</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="M40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="42">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="J43" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>97.68472022810499</v>
+        <v>76.32843350415706</v>
       </c>
       <c r="L43" t="n">
-        <v>85.08100106221673</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="45">
@@ -30794,7 +30794,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>76.32843350415709</v>
       </c>
       <c r="P46" t="n">
-        <v>76.32843350415962</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0489142063556189</v>
+        <v>0.0489142063556151</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5009426158394821</v>
+        <v>0.5009426158394433</v>
       </c>
       <c r="I8" t="n">
-        <v>1.885764940524999</v>
+        <v>1.885764940524853</v>
       </c>
       <c r="J8" t="n">
-        <v>4.151532121675213</v>
+        <v>4.151532121674891</v>
       </c>
       <c r="K8" t="n">
-        <v>6.222070476708562</v>
+        <v>6.22207047670808</v>
       </c>
       <c r="L8" t="n">
-        <v>7.719028619464336</v>
+        <v>7.719028619463737</v>
       </c>
       <c r="M8" t="n">
-        <v>8.588906636741072</v>
+        <v>8.588906636740406</v>
       </c>
       <c r="N8" t="n">
-        <v>8.727884125548975</v>
+        <v>8.727884125548298</v>
       </c>
       <c r="O8" t="n">
-        <v>8.241493486100289</v>
+        <v>8.24149348609965</v>
       </c>
       <c r="P8" t="n">
-        <v>7.033924016695947</v>
+        <v>7.033924016695401</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.282184001585343</v>
+        <v>5.282184001584934</v>
       </c>
       <c r="R8" t="n">
-        <v>3.072607014986148</v>
+        <v>3.07260701498591</v>
       </c>
       <c r="S8" t="n">
-        <v>1.114632477328667</v>
+        <v>1.11463247732858</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2141219383217218</v>
+        <v>0.2141219383217052</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003913136508449511</v>
+        <v>0.003913136508449207</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02617140767414083</v>
+        <v>0.0261714076741388</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2527607004318339</v>
+        <v>0.2527607004318143</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9010769747456383</v>
+        <v>0.9010769747455684</v>
       </c>
       <c r="J9" t="n">
-        <v>2.47262409082749</v>
+        <v>2.472624090827298</v>
       </c>
       <c r="K9" t="n">
-        <v>4.226108404994925</v>
+        <v>4.226108404994598</v>
       </c>
       <c r="L9" t="n">
-        <v>5.68252428468571</v>
+        <v>5.682524284685269</v>
       </c>
       <c r="M9" t="n">
-        <v>6.631237812873313</v>
+        <v>6.631237812872799</v>
       </c>
       <c r="N9" t="n">
-        <v>6.806746945916127</v>
+        <v>6.8067469459156</v>
       </c>
       <c r="O9" t="n">
-        <v>6.226843649557533</v>
+        <v>6.22684364955705</v>
       </c>
       <c r="P9" t="n">
-        <v>4.997590997003261</v>
+        <v>4.997590997002873</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.340757232228924</v>
+        <v>3.340757232228665</v>
       </c>
       <c r="R9" t="n">
-        <v>1.624923013312007</v>
+        <v>1.624923013311881</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4861224188595892</v>
+        <v>0.4861224188595515</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1054891388269097</v>
+        <v>0.1054891388269015</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001721803136456634</v>
+        <v>0.001721803136456501</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02194122903943644</v>
+        <v>0.02194122903943474</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1950774727324441</v>
+        <v>0.195077472732429</v>
       </c>
       <c r="I10" t="n">
-        <v>0.659832596931416</v>
+        <v>0.6598325969313649</v>
       </c>
       <c r="J10" t="n">
-        <v>1.551244893088156</v>
+        <v>1.551244893088036</v>
       </c>
       <c r="K10" t="n">
-        <v>2.549171882945433</v>
+        <v>2.549171882945235</v>
       </c>
       <c r="L10" t="n">
-        <v>3.262062361008578</v>
+        <v>3.262062361008325</v>
       </c>
       <c r="M10" t="n">
-        <v>3.439387384790932</v>
+        <v>3.439387384790665</v>
       </c>
       <c r="N10" t="n">
-        <v>3.357606440189399</v>
+        <v>3.357606440189139</v>
       </c>
       <c r="O10" t="n">
-        <v>3.101292991865072</v>
+        <v>3.101292991864832</v>
       </c>
       <c r="P10" t="n">
-        <v>2.653691919460566</v>
+        <v>2.653691919460361</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.837278733474992</v>
+        <v>1.837278733474849</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9865574439004783</v>
+        <v>0.9865574439004018</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3823757824418149</v>
+        <v>0.3823757824417853</v>
       </c>
       <c r="T10" t="n">
-        <v>0.09374888771395568</v>
+        <v>0.0937488877139484</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001196794311241989</v>
+        <v>0.001196794311241896</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837924</v>
@@ -33503,7 +33503,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138806</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233474</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34366,7 +34366,7 @@
         <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054954</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
         <v>557.2811376003809</v>
@@ -34387,7 +34387,7 @@
         <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781694</v>
       </c>
       <c r="R44" t="n">
         <v>275.1987363563568</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N13" t="n">
         <v>391.8320827861326</v>
@@ -35583,7 +35583,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>73.85403729409568</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K19" t="n">
-        <v>193.2541664368522</v>
+        <v>161.2157552034177</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>251.2329438658289</v>
       </c>
       <c r="M19" t="n">
         <v>263.0739917212234</v>
@@ -36057,13 +36057,13 @@
         <v>233.2617370939425</v>
       </c>
       <c r="P19" t="n">
-        <v>193.9007810682545</v>
+        <v>193.9007810682546</v>
       </c>
       <c r="Q19" t="n">
         <v>107.0015533973274</v>
       </c>
       <c r="R19" t="n">
-        <v>5.018120567137828</v>
+        <v>5.018120567137927</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>105.892448527528</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K22" t="n">
-        <v>161.2157552034197</v>
+        <v>193.2541664368522</v>
       </c>
       <c r="L22" t="n">
         <v>251.2329438658289</v>
@@ -36288,19 +36288,19 @@
         <v>263.0739917212234</v>
       </c>
       <c r="N22" t="n">
-        <v>266.9895025602635</v>
+        <v>234.951091326829</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567573</v>
+        <v>233.2617370939425</v>
       </c>
       <c r="P22" t="n">
-        <v>193.9007810682545</v>
+        <v>193.9007810682546</v>
       </c>
       <c r="Q22" t="n">
         <v>107.0015533973274</v>
       </c>
       <c r="R22" t="n">
-        <v>5.018120567137828</v>
+        <v>5.018120567137927</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>201.558495424363</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>409.5334806750254</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>105.892448527528</v>
+        <v>73.85403729409639</v>
       </c>
       <c r="K25" t="n">
-        <v>193.2541664368521</v>
+        <v>193.2541664368522</v>
       </c>
       <c r="L25" t="n">
-        <v>251.2329438658288</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M25" t="n">
         <v>263.0739917212233</v>
@@ -36531,13 +36531,13 @@
         <v>233.2617370939424</v>
       </c>
       <c r="P25" t="n">
-        <v>166.8804904019611</v>
+        <v>193.9007810682544</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.05128016014217</v>
+        <v>107.0015533973273</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.0181205671378</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,13 +36589,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5.398206845666522</v>
       </c>
       <c r="J26" t="n">
         <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>347.9627810110539</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923319</v>
@@ -36616,7 +36616,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>64.98648615220972</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004591</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165871</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120775</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P28" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>549.6926102858801</v>
+        <v>549.6926102858782</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129113</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36996,16 +36996,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37072,7 +37072,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>466.3616088479855</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302265</v>
@@ -37084,7 +37084,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>409.5334806750231</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037194</v>
@@ -37151,7 +37151,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340064</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013291</v>
@@ -37221,34 +37221,34 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.5782182671252158</v>
       </c>
       <c r="J34" t="n">
-        <v>15.96673970522629</v>
+        <v>108.8728139673062</v>
       </c>
       <c r="K34" t="n">
-        <v>99.30389319966699</v>
+        <v>196.2345318766303</v>
       </c>
       <c r="L34" t="n">
-        <v>254.2133093056068</v>
+        <v>254.213309305607</v>
       </c>
       <c r="M34" t="n">
-        <v>266.0543571610012</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N34" t="n">
-        <v>269.9698680000414</v>
+        <v>265.4177281408798</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2421025337204</v>
+        <v>236.2421025337206</v>
       </c>
       <c r="P34" t="n">
-        <v>196.8811465080324</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.9819188371053</v>
+        <v>109.9819188371055</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>7.998486006915982</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>1.33229981826684</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K37" t="n">
-        <v>184.384894261885</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L37" t="n">
-        <v>157.2826706286436</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M37" t="n">
-        <v>266.8084387121431</v>
+        <v>245.4521519881986</v>
       </c>
       <c r="N37" t="n">
         <v>270.7239495511832</v>
@@ -37485,7 +37485,7 @@
         <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>8.752567558057606</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923309</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
@@ -37561,7 +37561,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037199</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222472</v>
@@ -37695,34 +37695,34 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.332299818266883</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>88.27060879450227</v>
+        <v>89.60290861276701</v>
       </c>
       <c r="K40" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L40" t="n">
-        <v>157.2826706286436</v>
+        <v>254.9673908567488</v>
       </c>
       <c r="M40" t="n">
-        <v>266.8084387121431</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N40" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511834</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848624</v>
       </c>
       <c r="P40" t="n">
-        <v>197.6352280591743</v>
+        <v>197.6352280591744</v>
       </c>
       <c r="Q40" t="n">
         <v>13.05128016014217</v>
       </c>
       <c r="R40" t="n">
-        <v>8.752567558057649</v>
+        <v>8.752567558057748</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.332299818266897</v>
+        <v>1.332299818266982</v>
       </c>
       <c r="J43" t="n">
-        <v>109.6268955184479</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K43" t="n">
-        <v>196.988613427772</v>
+        <v>175.632326703824</v>
       </c>
       <c r="L43" t="n">
-        <v>242.3636716908604</v>
+        <v>254.9673908567488</v>
       </c>
       <c r="M43" t="n">
         <v>266.8084387121432</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848624</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591743</v>
+        <v>197.6352280591744</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882473</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>8.752567558057748</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687138</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554004</v>
@@ -38035,7 +38035,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222472</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38169,34 +38169,34 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.332299818266868</v>
+        <v>1.332299818266982</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034286</v>
+        <v>109.626895518448</v>
       </c>
       <c r="K46" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L46" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567488</v>
       </c>
       <c r="M46" t="n">
-        <v>266.8084387121431</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567573</v>
+        <v>215.6398973609143</v>
       </c>
       <c r="P46" t="n">
-        <v>176.2789413352289</v>
+        <v>197.6352280591744</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.7360003882471</v>
+        <v>110.7360003882473</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057635</v>
+        <v>8.752567558057748</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
